--- a/Index/GP Nr. 16-18.xlsx
+++ b/Index/GP Nr. 16-18.xlsx
@@ -1390,6 +1390,9 @@
       <c r="K20" t="n">
         <v>158.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2330,6 +2333,9 @@
       <c r="K20" t="n">
         <v>136.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3271,6 +3277,9 @@
       <c r="K20" t="n">
         <v>144.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4215,6 +4224,9 @@
       </c>
       <c r="K20" t="n">
         <v>137.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>137.9</v>
       </c>
     </row>
     <row r="21">
@@ -5157,6 +5169,9 @@
       <c r="K20" t="n">
         <v>143.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6097,6 +6112,9 @@
       <c r="K20" t="n">
         <v>130.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7037,6 +7055,9 @@
       <c r="K20" t="n">
         <v>158.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7977,6 +7998,9 @@
       <c r="K20" t="n">
         <v>201.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>194.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8917,6 +8941,9 @@
       <c r="K20" t="n">
         <v>219</v>
       </c>
+      <c r="L20" t="n">
+        <v>211.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9858,6 +9885,9 @@
       <c r="K20" t="n">
         <v>274.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>258.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10798,6 +10828,9 @@
       <c r="K20" t="n">
         <v>151.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11738,6 +11771,9 @@
       <c r="K20" t="n">
         <v>153.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12678,6 +12714,9 @@
       <c r="K20" t="n">
         <v>172.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>169.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13618,6 +13657,9 @@
       <c r="K20" t="n">
         <v>173.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14559,6 +14601,9 @@
       <c r="K20" t="n">
         <v>183</v>
       </c>
+      <c r="L20" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15499,6 +15544,9 @@
       <c r="K20" t="n">
         <v>229.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>222.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16445,6 +16493,9 @@
       </c>
       <c r="K20" t="n">
         <v>157.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>156.7</v>
       </c>
     </row>
     <row r="21">
@@ -17386,6 +17437,9 @@
       <c r="K20" t="n">
         <v>173.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>175.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18326,6 +18380,9 @@
       <c r="K20" t="n">
         <v>167</v>
       </c>
+      <c r="L20" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19396,6 +19453,9 @@
       <c r="K20" t="n">
         <v>185.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>184.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20336,6 +20396,9 @@
       <c r="K20" t="n">
         <v>165.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21280,6 +21343,9 @@
       </c>
       <c r="K20" t="n">
         <v>173.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>168.8</v>
       </c>
     </row>
     <row r="21">
@@ -22221,6 +22287,9 @@
       <c r="K20" t="n">
         <v>153.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23163,6 +23232,9 @@
       <c r="K20" t="n">
         <v>149.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24103,6 +24175,9 @@
       <c r="K20" t="n">
         <v>141</v>
       </c>
+      <c r="L20" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25044,6 +25119,9 @@
       <c r="K20" t="n">
         <v>145</v>
       </c>
+      <c r="L20" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25984,6 +26062,9 @@
       <c r="K20" t="n">
         <v>158.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26924,6 +27005,9 @@
       <c r="K20" t="n">
         <v>134.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27864,6 +27948,9 @@
       <c r="K20" t="n">
         <v>157.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28805,6 +28892,9 @@
       <c r="K20" t="n">
         <v>126.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29746,6 +29836,9 @@
       <c r="K20" t="n">
         <v>130.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30691,6 +30784,9 @@
       </c>
       <c r="K20" t="n">
         <v>145.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>155.1</v>
       </c>
     </row>
     <row r="21">
@@ -31635,6 +31731,9 @@
       <c r="K20" t="n">
         <v>109.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32575,6 +32674,9 @@
       <c r="K20" t="n">
         <v>138.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33515,6 +33617,9 @@
       <c r="K20" t="n">
         <v>155.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34455,6 +34560,9 @@
       <c r="K20" t="n">
         <v>140.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35395,6 +35503,9 @@
       <c r="K20" t="n">
         <v>132.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36335,6 +36446,9 @@
       <c r="K20" t="n">
         <v>126.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37275,6 +37389,9 @@
       <c r="K20" t="n">
         <v>126</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38210,6 +38327,9 @@
       <c r="K20" t="n">
         <v>148.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39151,6 +39271,9 @@
       <c r="K20" t="n">
         <v>153.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40091,6 +40214,9 @@
       <c r="K20" t="n">
         <v>125</v>
       </c>
+      <c r="L20" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41031,6 +41157,9 @@
       <c r="K20" t="n">
         <v>132</v>
       </c>
+      <c r="L20" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41971,6 +42100,9 @@
       <c r="K20" t="n">
         <v>117.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42911,6 +43043,9 @@
       <c r="K20" t="n">
         <v>161.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44111,6 +44246,9 @@
       <c r="K20" t="n">
         <v>138.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45311,6 +45449,9 @@
       <c r="K20" t="n">
         <v>136</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46251,6 +46392,9 @@
       <c r="K20" t="n">
         <v>108.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47191,6 +47335,9 @@
       <c r="K20" t="n">
         <v>105.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48131,6 +48278,9 @@
       <c r="K20" t="n">
         <v>125.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49071,6 +49221,9 @@
       <c r="K20" t="n">
         <v>125.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50271,6 +50424,9 @@
       <c r="K20" t="n">
         <v>113</v>
       </c>
+      <c r="L20" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51211,6 +51367,9 @@
       <c r="K20" t="n">
         <v>105.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52412,6 +52571,9 @@
       <c r="K20" t="n">
         <v>113.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53352,6 +53514,9 @@
       <c r="K20" t="n">
         <v>119.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54292,6 +54457,9 @@
       <c r="K20" t="n">
         <v>159.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55232,6 +55400,9 @@
       <c r="K20" t="n">
         <v>135.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56172,6 +56343,9 @@
       <c r="K20" t="n">
         <v>155.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57113,6 +57287,9 @@
       <c r="K20" t="n">
         <v>161.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58054,6 +58231,9 @@
       <c r="K20" t="n">
         <v>151.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 16-18.xlsx
+++ b/Index/GP Nr. 16-18.xlsx
@@ -1,72 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 16 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 16 10 10 350" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 16 10 10 500" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 16 10 23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 16 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 16 21" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 16 21 13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 16 21 14" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 16 22" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 16 23" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="&#10;GP = 16 23 1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 16 23 11" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 16 23 19" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 16 23 2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 16 24" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 16 29" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 16 29 14 908" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 17" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 17 1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 17 12" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 17 12 1" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 17 12 11" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="&#10;GP = 17 12 13" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 17 12 14" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 17 12 35" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 17 12 4" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 17 12 7" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="&#10;GP = 17 12 73" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 17 12 77" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 17 2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 17 21" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 17 21 11" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 17 21 12" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 17 21 13" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 17 21 14" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 17 22" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="&#10;GP = 17 22 11" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="&#10;GP = 17 22 12" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 17 23" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 17 24" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 17 29" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 18" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 18 1" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="GP Nr. 16-1844" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="GP = 18 11 1" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="GP = 18 12" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="GP = 18 12 12" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="GP = 18 12 12 301-308" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="GP = 18 12 12 502-504" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="GP = 18 12 12 505-509" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="GP = 18 12 13" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="GP = 18 12 13 007008" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="GP = 18 12 14" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="GP = 18 12 14 070-280" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="GP = 18 13" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="GP = 18 13 1" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="GP = 18 13 2" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="GP = 18 14" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="GP = 18 2" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 10 10 350" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 10 10 500" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 10 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 21 13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 21 14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 23" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 16 23 1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 23 11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 23 19" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 23 2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 24" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 29" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 16 29 14 908" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 11" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 17 12 13" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 14" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 35" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 7" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 17 12 73" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 12 77" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 21" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 21 11" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 21 12" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 21 13" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 21 14" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 22" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 17 22 11" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 17 22 12" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 23" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 24" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 17 29" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 16-1844" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 11 1" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 12" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 12 301-308" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 12 502-504" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 12 505-509" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 13" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 13 007008" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 14" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 12 14 070-280" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 13" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 13 1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 13 2" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 14" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 18 2" sheetId="60" state="visible" r:id="rId60"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1393,6 +1393,12 @@
       <c r="L20" t="n">
         <v>155.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2336,6 +2342,12 @@
       <c r="L20" t="n">
         <v>139.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>142</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3280,6 +3292,12 @@
       <c r="L20" t="n">
         <v>145.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4227,6 +4245,12 @@
       </c>
       <c r="L20" t="n">
         <v>137.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.9</v>
       </c>
     </row>
     <row r="21">
@@ -5172,6 +5196,12 @@
       <c r="L20" t="n">
         <v>143.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6115,6 +6145,12 @@
       <c r="L20" t="n">
         <v>131.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7058,6 +7094,12 @@
       <c r="L20" t="n">
         <v>159.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8001,6 +8043,12 @@
       <c r="L20" t="n">
         <v>194.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8944,6 +8992,12 @@
       <c r="L20" t="n">
         <v>211.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>181.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9888,6 +9942,12 @@
       <c r="L20" t="n">
         <v>258.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>195.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10831,6 +10891,12 @@
       <c r="L20" t="n">
         <v>151.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11774,6 +11840,12 @@
       <c r="L20" t="n">
         <v>150</v>
       </c>
+      <c r="M20" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>167.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12717,6 +12789,12 @@
       <c r="L20" t="n">
         <v>169.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13660,6 +13738,12 @@
       <c r="L20" t="n">
         <v>171</v>
       </c>
+      <c r="M20" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14604,6 +14688,12 @@
       <c r="L20" t="n">
         <v>182.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15547,6 +15637,12 @@
       <c r="L20" t="n">
         <v>222.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>203.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16496,6 +16592,12 @@
       </c>
       <c r="L20" t="n">
         <v>156.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>146.7</v>
       </c>
     </row>
     <row r="21">
@@ -17440,6 +17542,12 @@
       <c r="L20" t="n">
         <v>175.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18383,6 +18491,12 @@
       <c r="L20" t="n">
         <v>160.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19456,6 +19570,12 @@
       <c r="L20" t="n">
         <v>184.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20399,6 +20519,12 @@
       <c r="L20" t="n">
         <v>160.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21346,6 +21472,12 @@
       </c>
       <c r="L20" t="n">
         <v>168.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>158.3</v>
       </c>
     </row>
     <row r="21">
@@ -22290,6 +22422,12 @@
       <c r="L20" t="n">
         <v>146.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23235,6 +23373,12 @@
       <c r="L20" t="n">
         <v>145.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24178,6 +24322,12 @@
       <c r="L20" t="n">
         <v>142.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25122,6 +25272,12 @@
       <c r="L20" t="n">
         <v>144.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26065,6 +26221,12 @@
       <c r="L20" t="n">
         <v>156</v>
       </c>
+      <c r="M20" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27008,6 +27170,12 @@
       <c r="L20" t="n">
         <v>136.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>137</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27951,6 +28119,12 @@
       <c r="L20" t="n">
         <v>157.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28895,6 +29069,12 @@
       <c r="L20" t="n">
         <v>126</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29839,6 +30019,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30787,6 +30973,12 @@
       </c>
       <c r="L20" t="n">
         <v>155.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.8</v>
       </c>
     </row>
     <row r="21">
@@ -31734,6 +31926,12 @@
       <c r="L20" t="n">
         <v>109.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>105.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32677,6 +32875,12 @@
       <c r="L20" t="n">
         <v>139.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33620,6 +33824,12 @@
       <c r="L20" t="n">
         <v>158.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34563,6 +34773,12 @@
       <c r="L20" t="n">
         <v>140.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35506,6 +35722,12 @@
       <c r="L20" t="n">
         <v>132.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36449,6 +36671,12 @@
       <c r="L20" t="n">
         <v>126.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>127</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37392,6 +37620,12 @@
       <c r="L20" t="n">
         <v>126.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38330,6 +38564,12 @@
       <c r="L20" t="n">
         <v>152</v>
       </c>
+      <c r="M20" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39274,6 +39514,12 @@
       <c r="L20" t="n">
         <v>157.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40217,6 +40463,12 @@
       <c r="L20" t="n">
         <v>125.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41160,6 +41412,12 @@
       <c r="L20" t="n">
         <v>132</v>
       </c>
+      <c r="M20" t="n">
+        <v>132</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42103,6 +42361,12 @@
       <c r="L20" t="n">
         <v>117.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43046,6 +43310,12 @@
       <c r="L20" t="n">
         <v>170.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>169.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44249,6 +44519,12 @@
       <c r="L20" t="n">
         <v>140.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45452,6 +45728,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46395,6 +46677,12 @@
       <c r="L20" t="n">
         <v>109.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47338,6 +47626,12 @@
       <c r="L20" t="n">
         <v>106.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>99.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48281,6 +48575,12 @@
       <c r="L20" t="n">
         <v>124.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49224,6 +49524,12 @@
       <c r="L20" t="n">
         <v>124.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50427,6 +50733,12 @@
       <c r="L20" t="n">
         <v>113</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51370,6 +51682,12 @@
       <c r="L20" t="n">
         <v>105.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52574,6 +52892,12 @@
       <c r="L20" t="n">
         <v>113.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>107.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53517,6 +53841,12 @@
       <c r="L20" t="n">
         <v>119.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>120</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54460,6 +54790,12 @@
       <c r="L20" t="n">
         <v>157.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55403,6 +55739,12 @@
       <c r="L20" t="n">
         <v>135.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56346,6 +56688,12 @@
       <c r="L20" t="n">
         <v>152.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57290,6 +57638,12 @@
       <c r="L20" t="n">
         <v>158.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58234,6 +58588,12 @@
       <c r="L20" t="n">
         <v>148.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
